--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liron\ComputerScience\Visual Studio\Html\Code\anime-cards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF728954-78DD-4795-8C97-29B1B64832E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE99BE84-1856-4413-A57D-6B72F80909C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>kaito kid</t>
   </si>
@@ -65,9 +65,6 @@
     <t>https://i1.sndcdn.com/artworks-000315353391-3y8scl-t500x500.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">dabi </t>
-  </si>
-  <si>
     <t>https://i.pinimg.com/564x/97/f3/2d/97f32d2878eaf0f47443d97563c599ba.jpg</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
     <t>https://cdn.myanimelist.net/images/characters/6/454749.jpg</t>
   </si>
   <si>
-    <t>zeldris</t>
-  </si>
-  <si>
     <t>https://i.pinimg.com/564x/64/c7/5d/64c75db2693d250de5d6565dcc3fefce.jpg</t>
   </si>
   <si>
@@ -119,9 +113,6 @@
     <t>https://i.pinimg.com/564x/f8/47/eb/f847eb43dadaed556746ff696a461845.jpg</t>
   </si>
   <si>
-    <t>sesshomoru</t>
-  </si>
-  <si>
     <t>https://i.pinimg.com/564x/01/df/9e/01df9e198d51bbf275bcb589524693b5.jpg</t>
   </si>
   <si>
@@ -146,9 +137,6 @@
     <t>https://i.pinimg.com/564x/6e/34/af/6e34afe46143e8632130710c618a9ba8.jpg</t>
   </si>
   <si>
-    <t>michela</t>
-  </si>
-  <si>
     <t>https://i.pinimg.com/564x/e8/5e/ad/e85ead4758ccfe5363fdea809017f60d.jpg</t>
   </si>
   <si>
@@ -188,101 +176,117 @@
     <t>https://i.pinimg.com/736x/ff/b5/3f/ffb53f75eaf305351c986f4558d34b52.jpg</t>
   </si>
   <si>
+    <t>https://i.pinimg.com/564x/da/dd/7a/dadd7a39b76af7ed85e9d909451751aa.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/68/7f/25/687f253cb57755a85d209b012c4296cb.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/564x/ad/df/5b/addf5be8aa060aa6bdbb8b554965aa70.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/564x/e9/fe/51/e9fe5196ad030b4fb2d053109713c69e.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/564x/e9/e2/83/e9e28391ad66918896d4098ed30111f6.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/564x/98/ab/dd/98abdd4e4baa3eed678260a2da1d0cc5.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/d7/2f/3d/d72f3d0b0b3a8b896bcffe51d001410d.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/564x/69/18/3d/69183dc67406d4aeba5d22d2447ec51c.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/564x/15/06/05/15060508cf42ef783a91805568fab19b.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/564x/fc/77/b7/fc77b7dd70f32128d5dcfe7b4c0160c6.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/564x/98/1c/a2/981ca28788d5148937a8b1ebae798c2d.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/38/54/5c/38545c636b3c70148f16740023d9cdde.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/564x/9e/4f/90/9e4f904ea564220e3f8ea78ff10f48d3.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/564x/4a/83/b5/4a83b515cd4f6dd9873aac219166ffb8.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/564x/9a/3b/76/9a3b768a47c5969f201d27b63da10f61.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/564x/63/bf/8e/63bf8e1dd01c3be968da34a2745eb641.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/564x/c7/8f/6e/c78f6e5e17f89a136c347e83240f7448.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/564x/71/0d/e9/710de9834678ef54c584b04dc50e6678.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/92/ca/a6/92caa6e1fb19e15e1afec59c353f5e7e.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/564x/fc/71/e1/fc71e184dde830c8526eae5a0e2b97c4.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/564x/64/5f/1e/645f1e532efb40b76d1d995acfa5e7c0.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/564x/7a/4d/40/7a4d40d6e42910324da6f722ae08b86c.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/564x/de/b0/17/deb017ef24b000794eb143794591ec87.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/564x/0d/84/f3/0d84f30d4f142c516a727a33ebb19b45.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/6b/b0/31/6bb031fc11613d8f9b4d95b81ae9020d.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/564x/2c/36/89/2c368973e931ece37835f01b711a93fb.jpg</t>
+  </si>
+  <si>
     <t>https://i.pinimg.com/736x/e3/97/a4/e397a4b7f4d1d8665a1ec9784fbbecaf.jpg</t>
   </si>
   <si>
-    <t>https://i.pinimg.com/564x/da/dd/7a/dadd7a39b76af7ed85e9d909451751aa.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gohan </t>
-  </si>
-  <si>
-    <t>tushiro</t>
-  </si>
-  <si>
-    <t>https://i.pinimg.com/736x/68/7f/25/687f253cb57755a85d209b012c4296cb.jpg</t>
-  </si>
-  <si>
-    <t>https://i.pinimg.com/564x/ad/df/5b/addf5be8aa060aa6bdbb8b554965aa70.jpg</t>
-  </si>
-  <si>
-    <t>https://i.pinimg.com/564x/e9/fe/51/e9fe5196ad030b4fb2d053109713c69e.jpg</t>
-  </si>
-  <si>
-    <t>https://i.pinimg.com/564x/e9/e2/83/e9e28391ad66918896d4098ed30111f6.jpg</t>
-  </si>
-  <si>
-    <t>https://i.pinimg.com/564x/98/ab/dd/98abdd4e4baa3eed678260a2da1d0cc5.jpg</t>
-  </si>
-  <si>
-    <t>https://i.pinimg.com/736x/d7/2f/3d/d72f3d0b0b3a8b896bcffe51d001410d.jpg</t>
-  </si>
-  <si>
-    <t>https://i.pinimg.com/564x/69/18/3d/69183dc67406d4aeba5d22d2447ec51c.jpg</t>
-  </si>
-  <si>
-    <t>https://i.pinimg.com/564x/15/06/05/15060508cf42ef783a91805568fab19b.jpg</t>
-  </si>
-  <si>
-    <t>shingi</t>
-  </si>
-  <si>
-    <t>https://i.pinimg.com/564x/fc/77/b7/fc77b7dd70f32128d5dcfe7b4c0160c6.jpg</t>
-  </si>
-  <si>
-    <t>https://i.pinimg.com/564x/98/1c/a2/981ca28788d5148937a8b1ebae798c2d.jpg</t>
-  </si>
-  <si>
-    <t>https://i.pinimg.com/736x/38/54/5c/38545c636b3c70148f16740023d9cdde.jpg</t>
-  </si>
-  <si>
-    <t>https://i.pinimg.com/564x/9e/4f/90/9e4f904ea564220e3f8ea78ff10f48d3.jpg</t>
-  </si>
-  <si>
-    <t>https://i.pinimg.com/564x/4a/83/b5/4a83b515cd4f6dd9873aac219166ffb8.jpg</t>
-  </si>
-  <si>
-    <t>https://i.pinimg.com/564x/9a/3b/76/9a3b768a47c5969f201d27b63da10f61.jpg</t>
-  </si>
-  <si>
-    <t>https://i.pinimg.com/564x/63/bf/8e/63bf8e1dd01c3be968da34a2745eb641.jpg</t>
-  </si>
-  <si>
-    <t>https://i.pinimg.com/564x/c7/8f/6e/c78f6e5e17f89a136c347e83240f7448.jpg</t>
-  </si>
-  <si>
-    <t>gun ichirui</t>
-  </si>
-  <si>
-    <t>https://i.pinimg.com/564x/71/0d/e9/710de9834678ef54c584b04dc50e6678.jpg</t>
-  </si>
-  <si>
-    <t>https://i.pinimg.com/736x/92/ca/a6/92caa6e1fb19e15e1afec59c353f5e7e.jpg</t>
-  </si>
-  <si>
-    <t>https://i.pinimg.com/564x/fc/71/e1/fc71e184dde830c8526eae5a0e2b97c4.jpg</t>
-  </si>
-  <si>
-    <t>https://i.pinimg.com/564x/64/5f/1e/645f1e532efb40b76d1d995acfa5e7c0.jpg</t>
-  </si>
-  <si>
-    <t>https://i.pinimg.com/564x/7a/4d/40/7a4d40d6e42910324da6f722ae08b86c.jpg</t>
-  </si>
-  <si>
-    <t>https://i.pinimg.com/564x/de/b0/17/deb017ef24b000794eb143794591ec87.jpg</t>
-  </si>
-  <si>
-    <t>https://i.pinimg.com/564x/0d/84/f3/0d84f30d4f142c516a727a33ebb19b45.jpg</t>
-  </si>
-  <si>
-    <t>https://i.pinimg.com/736x/6b/b0/31/6bb031fc11613d8f9b4d95b81ae9020d.jpg</t>
+    <t xml:space="preserve">
+Zeldris</t>
+  </si>
+  <si>
+    <t>Sesshōmaru</t>
+  </si>
+  <si>
+    <t>Mikaela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gohan  </t>
+  </si>
+  <si>
+    <t>Tōshirō</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shinji </t>
+  </si>
+  <si>
+    <t>Gin Ichimaru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dabi </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,6 +315,12 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFD6DEEB"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -333,7 +343,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -352,6 +362,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -633,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B13F5FB-40CC-432B-998D-FDCCDD361D0A}">
-  <dimension ref="A1:H245"/>
+  <dimension ref="A1:H246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -702,382 +721,392 @@
     <row r="10" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="7" t="s">
-        <v>17</v>
+      <c r="A21" s="10" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="41" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" s="5"/>
+    </row>
+    <row r="52" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="9" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="51" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="6" t="s">
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="6" t="s">
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="6" t="s">
+    <row r="59" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="8"/>
+    </row>
+    <row r="61" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="6" t="s">
+    <row r="63" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="6" t="s">
+    <row r="64" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="6" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="60" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="6" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B65" s="6" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66" s="6" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B67" s="6" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B68" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="70" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="71" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="6" t="s">
-        <v>63</v>
+      <c r="A71" s="7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B72" s="6" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="6" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B74" s="6" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" s="6" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B76" s="6" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B77" s="6" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B78" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="81" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B85" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B86" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B87" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B88" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B89" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="80" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="90" spans="2:2" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="91" spans="2:2" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="92" spans="2:2" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="93" spans="2:2" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="94" spans="2:2" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="95" spans="2:2" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="96" spans="2:2" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="90" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="91" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="92" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="93" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="94" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="95" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="96" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="97" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="98" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="99" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1227,7 +1256,17 @@
     <row r="243" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="244" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="245" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="246" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B58" r:id="rId1" xr:uid="{97D48A0C-5005-4C67-AE22-FA1BA79736AF}"/>
+    <hyperlink ref="B52" r:id="rId2" xr:uid="{A3B089AC-03BD-46E3-8E03-E9314E089024}"/>
+    <hyperlink ref="B53" r:id="rId3" xr:uid="{B723BAA3-13A4-45E4-8760-E9C046F9B210}"/>
+    <hyperlink ref="B55" r:id="rId4" xr:uid="{922D22C5-0D69-4910-BE6C-990694379EF2}"/>
+    <hyperlink ref="B54" r:id="rId5" xr:uid="{4D4B17B8-4DC7-4EFC-8128-5FAE0AD1F4E1}"/>
+    <hyperlink ref="B59" r:id="rId6" xr:uid="{ABE09887-9079-4E37-9DAD-55F5AF06794E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
 </worksheet>
 </file>
--- a/excel.xlsx
+++ b/excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liron\ComputerScience\Visual Studio\Html\Code\anime-cards\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liron\ComputerScience\VisualStudio\Html\Code\anime-cards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE99BE84-1856-4413-A57D-6B72F80909C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DB6277-35FE-4536-80FD-9C302D5F357A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="87">
   <si>
     <t>kaito kid</t>
   </si>
@@ -280,13 +280,31 @@
   </si>
   <si>
     <t xml:space="preserve">Dabi </t>
+  </si>
+  <si>
+    <t>magic kaito, detective conan.</t>
+  </si>
+  <si>
+    <t>an amazing Magician.</t>
+  </si>
+  <si>
+    <t>Kaito Kid.</t>
+  </si>
+  <si>
+    <t>Dabi</t>
+  </si>
+  <si>
+    <t>Zeldris</t>
+  </si>
+  <si>
+    <t>Gohan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,6 +339,13 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -343,7 +368,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -370,6 +395,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -654,14 +683,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B13F5FB-40CC-432B-998D-FDCCDD361D0A}">
   <dimension ref="A1:H246"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.6328125" style="7" customWidth="1"/>
     <col min="2" max="2" width="13.7265625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
     <col min="6" max="6" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -674,25 +704,31 @@
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="12" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="12" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="12" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="11"/>
     </row>
     <row r="6" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
@@ -728,17 +764,26 @@
       <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="C12" s="12" t="s">
+        <v>84</v>
+      </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="C13" s="12" t="s">
+        <v>81</v>
+      </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
         <v>10</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="F14" s="1"/>
     </row>
@@ -782,15 +827,24 @@
       <c r="B22" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="C22" s="12" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="C23" s="12" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="6" t="s">
         <v>18</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -828,79 +882,97 @@
       <c r="B32" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C34" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="41" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C42" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C43" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C44" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="6" t="s">
         <v>39</v>
       </c>
@@ -921,16 +993,25 @@
       <c r="B52" s="9" t="s">
         <v>42</v>
       </c>
+      <c r="C52" s="12" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="53" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="9" t="s">
         <v>41</v>
       </c>
+      <c r="C53" s="12" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="54" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="C54" s="12" t="s">
+        <v>82</v>
+      </c>
       <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -972,141 +1053,168 @@
       <c r="B62" s="6" t="s">
         <v>47</v>
       </c>
+      <c r="C62" s="12" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="63" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="6" t="s">
         <v>48</v>
       </c>
+      <c r="C63" s="12" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="64" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B64" s="6" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C64" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B65" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B67" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B68" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B69" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="71" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="71" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B72" s="6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C72" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="6" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C73" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B74" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C74" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B76" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B77" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B78" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="81" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="81" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B82" s="6" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C82" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B83" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C83" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B84" s="6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C84" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B86" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B87" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B88" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B89" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="91" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="92" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="93" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="94" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="95" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="96" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="90" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="91" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="92" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="93" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="94" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="95" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="96" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="97" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="98" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="99" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liron\ComputerScience\VisualStudio\Html\Code\anime-cards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DB6277-35FE-4536-80FD-9C302D5F357A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4772BA-89DD-4B8B-9806-AB45481EA595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -288,9 +288,6 @@
     <t>an amazing Magician.</t>
   </si>
   <si>
-    <t>Kaito Kid.</t>
-  </si>
-  <si>
     <t>Dabi</t>
   </si>
   <si>
@@ -298,13 +295,16 @@
   </si>
   <si>
     <t>Gohan</t>
+  </si>
+  <si>
+    <t>Kaito Kid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,11 +340,26 @@
       <family val="3"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="2" tint="-0.499984740745262"/>
+      <color theme="1" tint="0.34998626667073579"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -368,7 +383,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -396,10 +411,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -683,15 +700,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B13F5FB-40CC-432B-998D-FDCCDD361D0A}">
   <dimension ref="A1:H246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.6328125" style="7" customWidth="1"/>
     <col min="2" max="2" width="13.7265625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" style="11" customWidth="1"/>
     <col min="6" max="6" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -705,7 +722,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -728,13 +745,13 @@
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="11"/>
+      <c r="C5" s="13"/>
     </row>
     <row r="6" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="14"/>
     </row>
     <row r="7" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
@@ -765,7 +782,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F12" s="1"/>
     </row>
@@ -828,7 +845,7 @@
         <v>16</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -994,7 +1011,7 @@
         <v>42</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.35">

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liron\ComputerScience\VisualStudio\Html\Code\anime-cards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4772BA-89DD-4B8B-9806-AB45481EA595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A750326D-85DF-4EAB-B842-53D1A8034073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="88">
   <si>
     <t>kaito kid</t>
   </si>
@@ -298,6 +298,9 @@
   </si>
   <si>
     <t>Kaito Kid</t>
+  </si>
+  <si>
+    <t>the best Magician.</t>
   </si>
 </sst>
 </file>
@@ -700,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B13F5FB-40CC-432B-998D-FDCCDD361D0A}">
   <dimension ref="A1:H246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -738,7 +741,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -800,7 +803,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F14" s="1"/>
     </row>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liron\ComputerScience\VisualStudio\Html\Code\anime-cards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A750326D-85DF-4EAB-B842-53D1A8034073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23FDE73-503A-4F3B-B329-9F70B78CFABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -701,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B13F5FB-40CC-432B-998D-FDCCDD361D0A}">
-  <dimension ref="A1:H246"/>
+  <dimension ref="A1:O246"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -712,7 +712,11 @@
     <col min="1" max="1" width="13.6328125" style="7" customWidth="1"/>
     <col min="2" max="2" width="13.7265625" style="3" customWidth="1"/>
     <col min="3" max="3" width="17.453125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="12.6328125" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="21.36328125" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -1174,12 +1178,12 @@
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="81" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B82" s="6" t="s">
         <v>63</v>
       </c>
@@ -1187,7 +1191,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B83" s="6" t="s">
         <v>64</v>
       </c>
@@ -1195,7 +1199,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B84" s="6" t="s">
         <v>65</v>
       </c>
@@ -1203,54 +1207,320 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B86" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B87" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B88" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B89" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="91" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="92" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="93" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="94" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="95" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="96" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="97" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="98" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="99" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="100" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="101" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="102" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="103" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="104" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="105" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="106" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="107" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="108" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="109" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="110" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="111" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="112" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="90" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="91" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="92" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="11"/>
+      <c r="K92" s="7"/>
+      <c r="L92" s="3"/>
+      <c r="M92" s="7"/>
+      <c r="N92" s="3"/>
+      <c r="O92" s="11"/>
+    </row>
+    <row r="93" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="12"/>
+      <c r="K93" s="7"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="7"/>
+      <c r="N93" s="4"/>
+      <c r="O93" s="12"/>
+    </row>
+    <row r="94" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="12"/>
+      <c r="K94" s="7"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="7"/>
+      <c r="N94" s="4"/>
+      <c r="O94" s="12"/>
+    </row>
+    <row r="95" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B95" s="7"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="12"/>
+      <c r="K95" s="7"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="7"/>
+      <c r="N95" s="4"/>
+      <c r="O95" s="12"/>
+    </row>
+    <row r="96" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B96" s="7"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="13"/>
+      <c r="K96" s="7"/>
+      <c r="L96" s="4"/>
+      <c r="M96" s="7"/>
+      <c r="N96" s="4"/>
+      <c r="O96" s="13"/>
+    </row>
+    <row r="97" spans="2:15" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B97" s="7"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="14"/>
+      <c r="K97" s="7"/>
+      <c r="L97" s="4"/>
+      <c r="M97" s="7"/>
+      <c r="N97" s="4"/>
+      <c r="O97" s="14"/>
+    </row>
+    <row r="98" spans="2:15" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B98" s="7"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="11"/>
+      <c r="K98" s="7"/>
+      <c r="L98" s="4"/>
+      <c r="M98" s="7"/>
+      <c r="N98" s="4"/>
+      <c r="O98" s="11"/>
+    </row>
+    <row r="99" spans="2:15" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="11"/>
+      <c r="K99" s="7"/>
+      <c r="L99" s="4"/>
+      <c r="M99" s="7"/>
+      <c r="N99" s="4"/>
+      <c r="O99" s="11"/>
+    </row>
+    <row r="100" spans="2:15" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="11"/>
+      <c r="K100" s="7"/>
+      <c r="L100" s="4"/>
+      <c r="M100" s="7"/>
+      <c r="N100" s="4"/>
+      <c r="O100" s="11"/>
+    </row>
+    <row r="101" spans="2:15" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B101" s="4"/>
+    </row>
+    <row r="102" spans="2:15" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B102" s="4"/>
+    </row>
+    <row r="103" spans="2:15" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B103" s="4"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="7"/>
+      <c r="J103" s="3"/>
+      <c r="K103" s="7"/>
+      <c r="L103" s="3"/>
+      <c r="M103" s="7"/>
+      <c r="N103" s="3"/>
+      <c r="O103" s="11"/>
+    </row>
+    <row r="104" spans="2:15" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C104" s="12"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="12"/>
+      <c r="J104" s="4"/>
+      <c r="K104" s="7"/>
+      <c r="L104" s="4"/>
+      <c r="M104" s="7"/>
+      <c r="N104" s="4"/>
+      <c r="O104" s="12"/>
+    </row>
+    <row r="105" spans="2:15" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C105" s="12"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="12"/>
+      <c r="J105" s="4"/>
+      <c r="K105" s="7"/>
+      <c r="L105" s="4"/>
+      <c r="M105" s="7"/>
+      <c r="N105" s="4"/>
+      <c r="O105" s="12"/>
+    </row>
+    <row r="106" spans="2:15" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C106" s="12"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="12"/>
+      <c r="J106" s="4"/>
+      <c r="K106" s="7"/>
+      <c r="L106" s="4"/>
+      <c r="M106" s="7"/>
+      <c r="N106" s="4"/>
+      <c r="O106" s="12"/>
+    </row>
+    <row r="107" spans="2:15" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C107" s="7"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="13"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="7"/>
+      <c r="I107" s="7"/>
+      <c r="J107" s="4"/>
+      <c r="K107" s="7"/>
+      <c r="L107" s="4"/>
+      <c r="M107" s="7"/>
+      <c r="N107" s="4"/>
+      <c r="O107" s="13"/>
+    </row>
+    <row r="108" spans="2:15" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C108" s="7"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="7"/>
+      <c r="I108" s="7"/>
+      <c r="J108" s="4"/>
+      <c r="K108" s="7"/>
+      <c r="L108" s="4"/>
+      <c r="M108" s="7"/>
+      <c r="N108" s="4"/>
+      <c r="O108" s="14"/>
+    </row>
+    <row r="109" spans="2:15" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C109" s="7"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="7"/>
+      <c r="I109" s="7"/>
+      <c r="J109" s="4"/>
+      <c r="K109" s="7"/>
+      <c r="L109" s="4"/>
+      <c r="M109" s="7"/>
+      <c r="N109" s="4"/>
+      <c r="O109" s="11"/>
+    </row>
+    <row r="110" spans="2:15" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C110" s="7"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="7"/>
+      <c r="I110" s="7"/>
+      <c r="J110" s="4"/>
+      <c r="K110" s="7"/>
+      <c r="L110" s="4"/>
+      <c r="M110" s="7"/>
+      <c r="N110" s="4"/>
+      <c r="O110" s="11"/>
+    </row>
+    <row r="111" spans="2:15" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C111" s="7"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="7"/>
+      <c r="I111" s="7"/>
+      <c r="J111" s="4"/>
+      <c r="K111" s="7"/>
+      <c r="L111" s="4"/>
+      <c r="M111" s="7"/>
+      <c r="N111" s="4"/>
+      <c r="O111" s="11"/>
+    </row>
+    <row r="112" spans="2:15" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="113" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="114" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="115" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
